--- a/main/underline_norm/data.xlsx
+++ b/main/underline_norm/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ḵ</t>
   </si>
@@ -61,13 +62,22 @@
   </si>
   <si>
     <t>Ḵ</t>
+  </si>
+  <si>
+    <t>ǥ</t>
+  </si>
+  <si>
+    <t>a̱</t>
+  </si>
+  <si>
+    <t>a̲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +90,13 @@
       <color rgb="FF202D4A"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
@@ -104,9 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +481,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
